--- a/SAMSUNG_youtube.xlsx
+++ b/SAMSUNG_youtube.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3F7AA-87AC-4280-8BBB-7F2DAB823EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="224">
   <si>
     <t>dark side</t>
   </si>
@@ -185,12 +186,6 @@
     <t>i really like my original active. couldn't they just put out an update? surely the original could do this.</t>
   </si>
   <si>
-    <t>최정환</t>
-  </si>
-  <si>
-    <t>언더아머 단속반한테 잡히면 일반모델로 강제 교환인가</t>
-  </si>
-  <si>
     <t>Penda Jr.</t>
   </si>
   <si>
@@ -249,13 +244,6 @@
   </si>
   <si>
     <t>Use MrWhoseTheBoss voice for bixby</t>
-  </si>
-  <si>
-    <t>새빨간곰</t>
-  </si>
-  <si>
-    <t>빅스비가 영어로 말하면 저렇게 들리는 건지.. 아니면 확인을 안한건지는 몰라도..
-진짜 이상하네..</t>
   </si>
   <si>
     <t>Taha Bazyar</t>
@@ -729,7 +717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -781,6 +769,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -828,7 +819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -861,9 +852,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,6 +904,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1071,12 +1096,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1411,29 +1441,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -1441,13 +1457,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -1455,13 +1471,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -1469,13 +1485,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -1483,13 +1499,13 @@
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
@@ -1497,13 +1513,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
@@ -1511,13 +1527,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -1525,13 +1541,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -1539,13 +1555,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1553,41 +1569,30 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -1595,13 +1600,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1609,13 +1614,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -1623,13 +1628,13 @@
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
@@ -1637,13 +1642,13 @@
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
@@ -1651,7 +1656,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -1665,13 +1670,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
@@ -1679,27 +1684,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1707,13 +1712,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -1721,13 +1726,13 @@
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>20</v>
@@ -1735,13 +1740,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -1749,13 +1754,13 @@
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
@@ -1763,55 +1768,55 @@
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>42</v>
@@ -1819,13 +1824,13 @@
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>20</v>
@@ -1833,13 +1838,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
@@ -1847,13 +1852,13 @@
     </row>
     <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
@@ -1861,24 +1866,24 @@
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -1889,13 +1894,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -1903,13 +1908,13 @@
     </row>
     <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
@@ -1917,13 +1922,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -1931,13 +1936,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -1945,13 +1950,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
@@ -1959,27 +1964,27 @@
     </row>
     <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -1987,13 +1992,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
@@ -2001,13 +2006,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
@@ -2015,13 +2020,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
@@ -2029,13 +2034,13 @@
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>42</v>
@@ -2043,27 +2048,27 @@
     </row>
     <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>20</v>
@@ -2071,13 +2076,13 @@
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>20</v>
@@ -2085,13 +2090,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
@@ -2099,13 +2104,13 @@
     </row>
     <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>20</v>
@@ -2113,13 +2118,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" t="s">
         <v>154</v>
-      </c>
-      <c r="B75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" t="s">
-        <v>158</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
@@ -2127,13 +2132,13 @@
     </row>
     <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>20</v>
@@ -2141,13 +2146,13 @@
     </row>
     <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>42</v>
@@ -2155,13 +2160,13 @@
     </row>
     <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>20</v>
@@ -2169,13 +2174,13 @@
     </row>
     <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>42</v>
@@ -2183,13 +2188,13 @@
     </row>
     <row r="80" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>42</v>
@@ -2197,41 +2202,41 @@
     </row>
     <row r="81" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>20</v>
@@ -2239,16 +2244,16 @@
     </row>
     <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,10 +2261,10 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -2267,27 +2272,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -2295,27 +2300,27 @@
     </row>
     <row r="88" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>42</v>
@@ -2323,13 +2328,13 @@
     </row>
     <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>20</v>
@@ -2337,27 +2342,27 @@
     </row>
     <row r="91" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>20</v>
@@ -2365,41 +2370,41 @@
     </row>
     <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
@@ -2407,13 +2412,13 @@
     </row>
     <row r="96" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>20</v>
@@ -2421,13 +2426,13 @@
     </row>
     <row r="97" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>20</v>
@@ -2435,13 +2440,13 @@
     </row>
     <row r="98" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>20</v>
@@ -2449,83 +2454,83 @@
     </row>
     <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
         <v>2</v>
@@ -2533,13 +2538,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
@@ -2547,13 +2552,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
         <v>2</v>
@@ -2561,13 +2566,13 @@
     </row>
     <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>20</v>
@@ -2581,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2594,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SAMSUNG_youtube.xlsx
+++ b/SAMSUNG_youtube.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D3F7AA-87AC-4280-8BBB-7F2DAB823EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D214248-E747-4539-90AF-7E3032149F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
   <si>
     <t>dark side</t>
   </si>
@@ -283,12 +283,6 @@
   </si>
   <si>
     <t>Ohh</t>
-  </si>
-  <si>
-    <t>Ниндзя Майнкрафт</t>
-  </si>
-  <si>
-    <t>Самсунг говно</t>
   </si>
   <si>
     <t>MiracleWarriors</t>
@@ -1097,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1441,15 +1435,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -1457,13 +1465,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
@@ -1471,55 +1479,55 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
@@ -1527,13 +1535,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -1541,13 +1549,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -1555,114 +1563,125 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -1670,223 +1689,223 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2</v>
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
@@ -1894,55 +1913,55 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -1950,209 +1969,209 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
+        <v>154</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" t="s">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>42</v>
@@ -2160,209 +2179,209 @@
     </row>
     <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>93</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
-      </c>
-      <c r="C84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" t="s">
-        <v>185</v>
+        <v>93</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>189</v>
+        <v>93</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>191</v>
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>20</v>
@@ -2370,41 +2389,41 @@
     </row>
     <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>194</v>
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>198</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
@@ -2412,169 +2431,127 @@
     </row>
     <row r="96" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" t="s">
-        <v>207</v>
+        <v>93</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>218</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" t="s">
-        <v>219</v>
-      </c>
-      <c r="D105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" t="s">
         <v>221</v>
       </c>
-      <c r="D106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>222</v>
-      </c>
-      <c r="B107" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" t="s">
-        <v>223</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/SAMSUNG_youtube.xlsx
+++ b/SAMSUNG_youtube.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D214248-E747-4539-90AF-7E3032149F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4B31B-915B-4780-9537-4A126B6E3707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="220">
   <si>
     <t>dark side</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>Samsung galaxy A90 gelsin</t>
-  </si>
-  <si>
-    <t>area 51 strom</t>
-  </si>
-  <si>
-    <t>Cuánto cuesta?</t>
   </si>
   <si>
     <t>Emanuel Ramos</t>
@@ -1091,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1333,22 +1327,22 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1375,11 +1369,11 @@
       <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1389,8 +1383,8 @@
       <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
+      <c r="D21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1412,7 +1406,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
@@ -1426,7 +1420,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -1477,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1487,11 +1481,11 @@
       <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1501,8 +1495,8 @@
       <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
+      <c r="D29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1571,11 +1565,11 @@
       <c r="C34" t="s">
         <v>74</v>
       </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1585,8 +1579,8 @@
       <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
+      <c r="D35" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1603,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1613,8 +1607,8 @@
       <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" t="s">
-        <v>2</v>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1631,7 +1625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1639,920 +1633,24 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
       <c r="D40" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>155</v>
-      </c>
-      <c r="B74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>159</v>
-      </c>
-      <c r="B76" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>167</v>
-      </c>
-      <c r="B79" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>171</v>
-      </c>
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" t="s">
-        <v>174</v>
-      </c>
-      <c r="D82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" t="s">
-        <v>176</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" t="s">
-        <v>180</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>186</v>
-      </c>
-      <c r="B88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C88" t="s">
-        <v>187</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>193</v>
-      </c>
-      <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>195</v>
-      </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" t="s">
-        <v>196</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>197</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>199</v>
-      </c>
-      <c r="B95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>200</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>201</v>
-      </c>
-      <c r="B96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" t="s">
-        <v>202</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>204</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99" t="s">
-        <v>210</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="132" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>214</v>
-      </c>
-      <c r="B101" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" t="s">
-        <v>215</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>216</v>
-      </c>
-      <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" t="s">
-        <v>219</v>
-      </c>
-      <c r="D103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>220</v>
-      </c>
-      <c r="B104" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2564,12 +1662,897 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SAMSUNG_youtube.xlsx
+++ b/SAMSUNG_youtube.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4B31B-915B-4780-9537-4A126B6E3707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1B4AF-DD61-49C9-9273-13CCA73D4558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="218">
   <si>
     <t>dark side</t>
   </si>
@@ -282,10 +282,6 @@
     <t>MiracleWarriors</t>
   </si>
   <si>
-    <t>The only problem is that the audio with advices from the watch comes from it instead the bluetooth earbuds. 
-Samsung needs to address that problem ... with my galaxy watch I can't hear what it  says when I'm listening to music from my smartphone via bluetooth earbuds .</t>
-  </si>
-  <si>
     <t>stuff about wot and funny stuff lol</t>
   </si>
   <si>
@@ -527,13 +523,6 @@
   </si>
   <si>
     <t>Bixby voice is garbage</t>
-  </si>
-  <si>
-    <t>محمد/ mohamad</t>
-  </si>
-  <si>
-    <t>زندقة 
-الا تأتو لي بواحدة لي</t>
   </si>
   <si>
     <t>Brandon Jensen</t>
@@ -700,6 +689,11 @@
   </si>
   <si>
     <t>Ist view</t>
+  </si>
+  <si>
+    <t>The only problem is that the audio with advices from the watch comes from it instead the bluetooth earbuds. 
+Samsung needs to address that problem ... with my galaxy watch I can't hear what it  says when I'm listening to music from my smartphone via bluetooth earbuds .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1085,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1135,524 +1129,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1662,13 +1138,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="157.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1678,7 +1157,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1686,13 +1165,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1700,13 +1179,13 @@
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1714,13 +1193,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1728,13 +1207,13 @@
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
@@ -1742,55 +1221,55 @@
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>40</v>
@@ -1798,13 +1277,13 @@
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1812,13 +1291,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1826,13 +1305,13 @@
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
         <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
@@ -1840,24 +1319,24 @@
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1868,13 +1347,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -1882,13 +1361,13 @@
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
         <v>120</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -1896,13 +1375,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>122</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -1910,13 +1389,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -1924,13 +1403,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
         <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -1938,27 +1417,27 @@
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
         <v>128</v>
       </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
         <v>131</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -1966,13 +1445,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -1980,13 +1459,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
         <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
@@ -1994,13 +1473,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
         <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
@@ -2008,13 +1487,13 @@
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
         <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>40</v>
@@ -2022,27 +1501,27 @@
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>141</v>
       </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>142</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -2050,13 +1529,13 @@
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
         <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
@@ -2064,13 +1543,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
         <v>146</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -2078,13 +1557,13 @@
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
         <v>148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>149</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
@@ -2092,13 +1571,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>2</v>
@@ -2106,13 +1585,13 @@
     </row>
     <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
         <v>151</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>152</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>20</v>
@@ -2120,13 +1599,13 @@
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
         <v>153</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>40</v>
@@ -2134,13 +1613,13 @@
     </row>
     <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
         <v>155</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
@@ -2148,13 +1627,13 @@
     </row>
     <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
         <v>157</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>158</v>
-      </c>
-      <c r="C35" t="s">
-        <v>159</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>40</v>
@@ -2162,13 +1641,13 @@
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
         <v>160</v>
-      </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>40</v>
@@ -2176,27 +1655,27 @@
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
         <v>162</v>
       </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
         <v>165</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
@@ -2204,72 +1683,72 @@
     </row>
     <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>167</v>
       </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
         <v>169</v>
       </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>171</v>
+      <c r="D40" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>172</v>
       </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>174</v>
       </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
         <v>175</v>
       </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2277,83 +1756,83 @@
         <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
         <v>178</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
         <v>180</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>181</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
         <v>182</v>
       </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
         <v>186</v>
       </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>189</v>
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2361,24 +1840,24 @@
         <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
         <v>191</v>
-      </c>
-      <c r="B51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" t="s">
-        <v>192</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
@@ -2386,13 +1865,13 @@
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
         <v>193</v>
-      </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" t="s">
-        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
@@ -2400,13 +1879,13 @@
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
         <v>195</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s">
-        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
@@ -2414,16 +1893,16 @@
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
         <v>197</v>
       </c>
-      <c r="B54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -2431,7 +1910,7 @@
         <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
         <v>200</v>
@@ -2445,66 +1924,66 @@
         <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
         <v>203</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
         <v>205</v>
       </c>
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="132" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>209</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>211</v>
+      <c r="D59" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
         <v>212</v>
-      </c>
-      <c r="B60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" t="s">
-        <v>213</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
@@ -2512,49 +1991,554 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
         <v>214</v>
       </c>
-      <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>215</v>
       </c>
-      <c r="D61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
         <v>216</v>
       </c>
-      <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>217</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SAMSUNG_youtube.xlsx
+++ b/SAMSUNG_youtube.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D1B4AF-DD61-49C9-9273-13CCA73D4558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00297F3A-89C2-49D0-B4B2-38E3EF0B1AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="219">
   <si>
     <t>dark side</t>
   </si>
@@ -693,6 +693,10 @@
   <si>
     <t>The only problem is that the audio with advices from the watch comes from it instead the bluetooth earbuds. 
 Samsung needs to address that problem ... with my galaxy watch I can't hear what it  says when I'm listening to music from my smartphone via bluetooth earbuds .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,6 +1100,9 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1140,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -1947,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="264" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>206</v>
       </c>
